--- a/data/trans_orig/PCS12_SP-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Habitat-trans_orig.xlsx
@@ -684,16 +684,16 @@
         <v>49.0460411111368</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>51.480779489456</v>
+        <v>51.48077948945602</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>50.62591323249777</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50.84183982644179</v>
+        <v>50.8418398264418</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>49.72346897049448</v>
+        <v>49.72346897049449</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>52.0046070738841</v>
+        <v>51.9219417112687</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>51.141489849492</v>
+        <v>51.13106811906958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51.63492095414932</v>
+        <v>51.62837276218033</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49.66332068381712</v>
+        <v>49.68704231869879</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>49.74821263464167</v>
+        <v>49.78612847340473</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>48.42549918132179</v>
+        <v>48.32233056148038</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>48.41525641866813</v>
+        <v>48.41750937944391</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>48.36267260395523</v>
+        <v>48.40476717898594</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>51.01920055134423</v>
+        <v>51.05159330844157</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50.09860206090793</v>
+        <v>50.04202100576838</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50.2646050042572</v>
+        <v>50.28543808637458</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>49.2495372269905</v>
+        <v>49.21954186165993</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>53.00801129464105</v>
+        <v>52.99182922489448</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>52.51316346648662</v>
+        <v>52.60845689634959</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52.87388677827489</v>
+        <v>52.86554502917774</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51.15279429281645</v>
+        <v>51.12578111442753</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>51.13210576943728</v>
+        <v>51.17378964171785</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>50.07261874563832</v>
+        <v>50.01039801405975</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>50.17574094843025</v>
+        <v>50.13425531077954</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>49.66360932539382</v>
+        <v>49.6346856992535</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>51.90804894876548</v>
+        <v>51.90327059113964</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51.21023293685302</v>
+        <v>51.12667528877255</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51.30761641943639</v>
+        <v>51.41703609128189</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>50.1993437760845</v>
+        <v>50.18216180124104</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>51.5200488550247</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>50.88733493441332</v>
+        <v>50.88733493441331</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>52.39103514024399</v>
+        <v>52.42235045218447</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>51.56050242075498</v>
+        <v>51.52447503319527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52.1155308288283</v>
+        <v>52.1357732555111</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51.66567964264739</v>
+        <v>51.66312346279629</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>49.7654788839619</v>
+        <v>49.83302524309694</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>48.94977237262346</v>
+        <v>48.9345367602862</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>49.76120925637226</v>
+        <v>49.73095175744937</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>49.0550662702492</v>
+        <v>49.05248122786113</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>51.29641828421893</v>
+        <v>51.25692426208764</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50.38294697734693</v>
+        <v>50.40061769264864</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51.09743068057846</v>
+        <v>51.02980346786792</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>50.51091697430073</v>
+        <v>50.49846680954435</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>53.37753743737257</v>
+        <v>53.38910975330795</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>52.65421358406613</v>
+        <v>52.67056411641023</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53.15571529697217</v>
+        <v>53.15482250295869</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52.69432192280681</v>
+        <v>52.6897571830891</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>50.97108981305318</v>
+        <v>51.01410405753592</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>50.29559160570743</v>
+        <v>50.27574708935984</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>51.05988934838203</v>
+        <v>51.03426221170456</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>50.07160198139675</v>
+        <v>50.12360992487606</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>52.05245019490144</v>
+        <v>52.04260187061465</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51.23340208670079</v>
+        <v>51.26109758881521</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>51.9569287998316</v>
+        <v>51.92188104405734</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>51.2583498865924</v>
+        <v>51.25211339890688</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         <v>52.7129180645759</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>52.9097303917044</v>
+        <v>52.90973039170439</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>52.98570978788035</v>
@@ -965,7 +965,7 @@
         <v>51.88818653931396</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>51.06420648705704</v>
+        <v>51.06420648705705</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>52.12990194700894</v>
+        <v>52.15066553151002</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>52.16325599060652</v>
+        <v>52.118328356148</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>52.32917216294052</v>
+        <v>52.32625277682833</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51.04476631002471</v>
+        <v>51.15133864783404</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>49.18608965902031</v>
+        <v>49.22642928391612</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>49.32925642299965</v>
+        <v>49.30289440125686</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>49.99162285701522</v>
+        <v>50.06971152087225</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>49.72631847818605</v>
+        <v>49.73321963789834</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>50.83907540200842</v>
+        <v>50.83728049343171</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50.98675519119158</v>
+        <v>51.015436911144</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51.3633588855816</v>
+        <v>51.38660525235569</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>50.55700688106619</v>
+        <v>50.60132826958654</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>53.23252516528123</v>
+        <v>53.25441017484356</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>53.46395418594871</v>
+        <v>53.4496332333635</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53.51857859116486</v>
+        <v>53.50008187137043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52.42964884228132</v>
+        <v>52.39774935868157</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>50.6627781243093</v>
+        <v>50.68286249109988</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>50.91952457087283</v>
+        <v>50.83923483586398</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>51.53241238029166</v>
+        <v>51.5770317248318</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>50.91416126255007</v>
+        <v>50.99876782270665</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>51.78243797051049</v>
+        <v>51.77806963789391</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51.99627784642862</v>
+        <v>52.00311028143186</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52.32052499048098</v>
+        <v>52.34633703391102</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>51.49114662485184</v>
+        <v>51.51268848335977</v>
       </c>
     </row>
     <row r="13">
@@ -1077,22 +1077,22 @@
         <v>52.81089204450346</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51.34704801407472</v>
+        <v>51.34704801407474</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>50.44979582193459</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>49.86331186338325</v>
+        <v>49.86331186338324</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>50.6766227184394</v>
+        <v>50.67662271843939</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49.0338328473588</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>51.66632535345879</v>
+        <v>51.6663253534588</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>50.97094478542619</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>52.57247159517853</v>
+        <v>52.50669994054527</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>51.60657011333915</v>
+        <v>51.57047236566222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52.20069854438987</v>
+        <v>52.28361548854161</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50.8001440196882</v>
+        <v>50.80856545203375</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>49.87633229674837</v>
+        <v>49.78760656740573</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>49.17317616334314</v>
+        <v>49.20495444750546</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>49.90047347624079</v>
+        <v>50.02890456695948</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>48.45793828248891</v>
+        <v>48.51374639409981</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>51.23299836707527</v>
+        <v>51.24560508976078</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50.54394202334078</v>
+        <v>50.50417116572248</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51.19438593792735</v>
+        <v>51.24169046211281</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>49.69770465294674</v>
+        <v>49.69774585687821</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>53.4770239991723</v>
+        <v>53.38052494061469</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>52.74237831951282</v>
+        <v>52.68004112846731</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>53.33242442014898</v>
+        <v>53.28549356477182</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>51.8642929627522</v>
+        <v>51.85234668096545</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>51.05930633746735</v>
+        <v>50.9858619980271</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>50.43284741343695</v>
+        <v>50.45595559248313</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>51.32963619194341</v>
+        <v>51.3258967996187</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>49.56051920692591</v>
+        <v>49.540940596965</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>52.0289901522627</v>
+        <v>52.03833864215216</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>51.41156246919612</v>
+        <v>51.3804730257502</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>52.1177441502583</v>
+        <v>52.11621856726961</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>50.48827682440886</v>
+        <v>50.46988670112554</v>
       </c>
     </row>
     <row r="16">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>52.81078759681099</v>
+        <v>52.81078759681098</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>52.26991123376544</v>
@@ -1213,7 +1213,7 @@
         <v>52.7035101882048</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51.52428832361523</v>
+        <v>51.52428832361524</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>50.35557475485115</v>
@@ -1225,7 +1225,7 @@
         <v>50.3823701748662</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>49.48596705167218</v>
+        <v>49.48596705167217</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>51.56424734098984</v>
@@ -1237,7 +1237,7 @@
         <v>51.51781975561694</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>50.47686400138031</v>
+        <v>50.4768640013803</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>52.52942784015313</v>
+        <v>52.55484493662536</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>51.9671819937894</v>
+        <v>51.96483035963771</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52.40563157921497</v>
+        <v>52.43823180202102</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51.23362024748869</v>
+        <v>51.22393414253593</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>50.0451761431171</v>
+        <v>50.01231017446634</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>49.3301183994337</v>
+        <v>49.38824810632136</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>50.01356520391084</v>
+        <v>49.99714066289078</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>49.22778138630045</v>
+        <v>49.19971871958791</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>51.35068727131093</v>
+        <v>51.35440106731233</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50.7478761850118</v>
+        <v>50.72730553115936</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51.28475111135958</v>
+        <v>51.2972101115914</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>50.2844123864816</v>
+        <v>50.27933279397048</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>53.07062330578763</v>
+        <v>53.07332851530058</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>52.58262564937634</v>
+        <v>52.55180927903576</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52.96794175818549</v>
+        <v>52.99926732378591</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51.79859493024119</v>
+        <v>51.80564150841364</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>50.68482619341621</v>
+        <v>50.64657667059488</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>50.03591057790496</v>
+        <v>50.08863842002339</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>50.73984974258628</v>
+        <v>50.73148560857124</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>49.79495301498666</v>
+        <v>49.77199448946841</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>51.76058903395163</v>
+        <v>51.75199853030235</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51.21823739185511</v>
+        <v>51.19472495495172</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51.74509957723212</v>
+        <v>51.75675787909866</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>50.679393166037</v>
+        <v>50.68475836192489</v>
       </c>
     </row>
     <row r="19">
